--- a/data/feats_con_10.xlsx
+++ b/data/feats_con_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk\Work\pydnameth\datasets\GPL21145\GSEUNN\special\021_ml_data\immuno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Work\pydnameth\datasets\GPL21145\GSEUNN\special\044_small_immuno_clocks_revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F26D72-E6C0-4CD8-86B7-A69C3EA25632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF7D04-A6AF-4E65-8FA3-04A6FC1F039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42015" yWindow="1575" windowWidth="32880" windowHeight="17295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28510" yWindow="1920" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,18 +30,12 @@
     <t>features</t>
   </si>
   <si>
-    <t>IL1RA</t>
-  </si>
-  <si>
     <t>IL6</t>
   </si>
   <si>
     <t>CXCL10</t>
   </si>
   <si>
-    <t>CCL2</t>
-  </si>
-  <si>
     <t>CSF1</t>
   </si>
   <si>
@@ -51,13 +45,19 @@
     <t>CXCL9</t>
   </si>
   <si>
-    <t>CCL4</t>
-  </si>
-  <si>
     <t>PDGFA</t>
   </si>
   <si>
     <t>PDGFB</t>
+  </si>
+  <si>
+    <t>CD40LG</t>
+  </si>
+  <si>
+    <t>IL27</t>
+  </si>
+  <si>
+    <t>VEGFA</t>
   </si>
 </sst>
 </file>
@@ -401,64 +401,64 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
